--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_197__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_197__Reeval_Halton_Modell_1.1.xlsx
@@ -5993,16 +5993,16 @@
                   <c:v>44.56435012817383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.643887996673584</c:v>
+                  <c:v>2.643890619277954</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.34018325805664</c:v>
+                  <c:v>43.34017944335938</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>51.07535934448242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.113520622253418</c:v>
+                  <c:v>2.113523006439209</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.6484260559082</c:v>
@@ -6011,7 +6011,7 @@
                   <c:v>0.332409143447876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7306414842605591</c:v>
+                  <c:v>0.7306390404701233</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>51.12311935424805</c:v>
@@ -6029,13 +6029,13 @@
                   <c:v>41.11970138549805</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.97365951538086</c:v>
+                  <c:v>44.97366333007812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.95816898345947</c:v>
+                  <c:v>11.95816993713379</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1210082173347473</c:v>
+                  <c:v>0.1210106760263443</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44.57494354248047</c:v>
@@ -6044,7 +6044,7 @@
                   <c:v>0.3362818360328674</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5973374843597412</c:v>
+                  <c:v>0.597339928150177</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42.96928405761719</c:v>
@@ -6056,19 +6056,19 @@
                   <c:v>44.06771850585938</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.794559001922607</c:v>
+                  <c:v>5.794556617736816</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.103297233581543</c:v>
+                  <c:v>9.103294372558594</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.021885395050049</c:v>
+                  <c:v>-2.021882772445679</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>49.36621475219727</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.56942749023438</c:v>
+                  <c:v>42.56942367553711</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.332409143447876</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>3.431404113769531</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.012214660644531</c:v>
+                  <c:v>4.01221227645874</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43.93828964233398</c:v>
@@ -6098,7 +6098,7 @@
                   <c:v>0.332409143447876</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.235638856887817</c:v>
+                  <c:v>-2.235643863677979</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.332409143447876</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>-0.9039934873580933</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49.8802490234375</c:v>
+                  <c:v>49.88024139404297</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.2996448874473572</c:v>
@@ -6131,7 +6131,7 @@
                   <c:v>30.35904502868652</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3967220783233643</c:v>
+                  <c:v>0.3967245519161224</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>53.36865997314453</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>-1.690802335739136</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.590706944465637</c:v>
+                  <c:v>-1.590702056884766</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>41.42054748535156</c:v>
@@ -6170,13 +6170,13 @@
                   <c:v>0.332409143447876</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9.146854400634766</c:v>
+                  <c:v>9.146851539611816</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>7.183579921722412</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.98251485824585</c:v>
+                  <c:v>5.982512474060059</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>42.44813537597656</c:v>
@@ -6194,16 +6194,16 @@
                   <c:v>43.36984634399414</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45.46907424926758</c:v>
+                  <c:v>45.46908187866211</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51.1170768737793</c:v>
+                  <c:v>51.11707305908203</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>53.79256820678711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>52.6967887878418</c:v>
+                  <c:v>52.69678497314453</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>49.10037994384766</c:v>
@@ -6221,16 +6221,16 @@
                   <c:v>54.2117805480957</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.08082276582717896</c:v>
+                  <c:v>0.08082030713558197</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43.51338195800781</c:v>
+                  <c:v>43.51338577270508</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>38.39833450317383</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>54.93734359741211</c:v>
+                  <c:v>54.93733978271484</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.2084516137838364</c:v>
@@ -6239,13 +6239,13 @@
                   <c:v>48.40374755859375</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.443460464477539</c:v>
+                  <c:v>6.443459033966064</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>8.733698844909668</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.078455448150635</c:v>
+                  <c:v>4.078453063964844</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>43.5217399597168</c:v>
@@ -6254,7 +6254,7 @@
                   <c:v>-1.335343718528748</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.4229565858840942</c:v>
+                  <c:v>0.42295902967453</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>32.14380645751953</c:v>
@@ -6266,10 +6266,10 @@
                   <c:v>54.21965789794922</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.891923427581787</c:v>
+                  <c:v>7.891924381256104</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.01711639016866684</c:v>
+                  <c:v>-0.01711884699761868</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>43.99001693725586</c:v>
@@ -6278,13 +6278,13 @@
                   <c:v>51.29750442504883</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>47.51529312133789</c:v>
+                  <c:v>47.51528930664062</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>25.75917434692383</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.2403097152709961</c:v>
+                  <c:v>-0.2403072565793991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.643887996673584</v>
+        <v>2.643890619277954</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>43.34018325805664</v>
+        <v>43.34017944335938</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.113520622253418</v>
+        <v>2.113523006439209</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7306414842605591</v>
+        <v>0.7306390404701233</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>44.97365951538086</v>
+        <v>44.97366333007812</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>11.95816898345947</v>
+        <v>11.95816993713379</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1210082173347473</v>
+        <v>0.1210106760263443</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5973374843597412</v>
+        <v>0.597339928150177</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.794559001922607</v>
+        <v>5.794556617736816</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>9.103297233581543</v>
+        <v>9.103294372558594</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-2.021885395050049</v>
+        <v>-2.021882772445679</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>42.56942749023438</v>
+        <v>42.56942367553711</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>4.012214660644531</v>
+        <v>4.01221227645874</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-2.235638856887817</v>
+        <v>-2.235643863677979</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>49.8802490234375</v>
+        <v>49.88024139404297</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.3967220783233643</v>
+        <v>0.3967245519161224</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-1.590706944465637</v>
+        <v>-1.590702056884766</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>9.146854400634766</v>
+        <v>9.146851539611816</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>5.98251485824585</v>
+        <v>5.982512474060059</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>45.46907424926758</v>
+        <v>45.46908187866211</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>51.1170768737793</v>
+        <v>51.11707305908203</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>52.6967887878418</v>
+        <v>52.69678497314453</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>0.08082276582717896</v>
+        <v>0.08082030713558197</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>43.51338195800781</v>
+        <v>43.51338577270508</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>54.93734359741211</v>
+        <v>54.93733978271484</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>6.443460464477539</v>
+        <v>6.443459033966064</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>4.078455448150635</v>
+        <v>4.078453063964844</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.4229565858840942</v>
+        <v>0.42295902967453</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>7.891923427581787</v>
+        <v>7.891924381256104</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>-0.01711639016866684</v>
+        <v>-0.01711884699761868</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>47.51529312133789</v>
+        <v>47.51528930664062</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>-0.2403097152709961</v>
+        <v>-0.2403072565793991</v>
       </c>
     </row>
     <row r="102" spans="1:6">
